--- a/IBK/excel/BL_result_0725_SAMPLE_1.1.3.xlsx
+++ b/IBK/excel/BL_result_0725_SAMPLE_1.1.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1192">
   <si>
     <t>file name</t>
   </si>
@@ -3443,15 +3443,9 @@
     <t>INCHOEN KOREA</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>EXPEDITORS INTERNATIONAL</t>
   </si>
   <si>
-    <t>3 A</t>
-  </si>
-  <si>
     <t>-‘ENANG</t>
   </si>
   <si>
@@ -3471,9 +3465,6 @@
   </si>
   <si>
     <t>MIL AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - ' • •' . ' ' I I</t>
   </si>
   <si>
     <t>K LOGISTICS CO.LTD.</t>
@@ -3640,7 +3631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3653,8 +3644,14 @@
         <bgColor rgb="FFADFF2F"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3662,11 +3659,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3674,11 +3680,13 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3756,126 +3764,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4176,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4281,28 +4169,28 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="7" t="s">
         <v>284</v>
       </c>
       <c r="I4" s="2">
@@ -4408,28 +4296,28 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="7" t="s">
         <v>298</v>
       </c>
       <c r="I8" s="2">
@@ -4442,28 +4330,28 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="7" t="s">
         <v>298</v>
       </c>
       <c r="I9" s="2">
@@ -4569,28 +4457,28 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="7" t="s">
         <v>320</v>
       </c>
       <c r="I13" s="2">
@@ -4634,28 +4522,28 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="7" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="2">
@@ -4668,28 +4556,28 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="7" t="s">
         <v>338</v>
       </c>
       <c r="I16" s="2">
@@ -4702,28 +4590,28 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="7" t="s">
         <v>343</v>
       </c>
       <c r="I17" s="2">
@@ -4764,28 +4652,28 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="7" t="s">
         <v>348</v>
       </c>
       <c r="I19" s="2">
@@ -4798,28 +4686,28 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="7" t="s">
         <v>348</v>
       </c>
       <c r="I20" s="2">
@@ -4863,28 +4751,28 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="7">
         <v>43505</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="7" t="s">
         <v>357</v>
       </c>
       <c r="I22" s="2">
@@ -4897,28 +4785,28 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="7">
         <v>43505</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="7" t="s">
         <v>358</v>
       </c>
       <c r="I23" s="2">
@@ -5298,28 +5186,28 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="7" t="s">
         <v>407</v>
       </c>
       <c r="I37" s="2">
@@ -5332,28 +5220,28 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="7" t="s">
         <v>411</v>
       </c>
       <c r="I38" s="2">
@@ -5366,28 +5254,28 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="7" t="s">
         <v>407</v>
       </c>
       <c r="I39" s="2">
@@ -5512,28 +5400,28 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="7" t="s">
         <v>434</v>
       </c>
       <c r="I44" s="2">
@@ -5637,28 +5525,28 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="7" t="s">
         <v>446</v>
       </c>
       <c r="I49" s="2">
@@ -5780,28 +5668,28 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="7" t="s">
         <v>457</v>
       </c>
       <c r="I54" s="2">
@@ -5892,28 +5780,28 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="7" t="s">
         <v>288</v>
       </c>
       <c r="I58" s="2">
@@ -5926,28 +5814,28 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="7" t="s">
         <v>476</v>
       </c>
       <c r="I59" s="2">
@@ -5960,28 +5848,28 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="7" t="s">
         <v>476</v>
       </c>
       <c r="I60" s="2">
@@ -5994,28 +5882,28 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="7" t="s">
         <v>480</v>
       </c>
       <c r="I61" s="2">
@@ -6027,29 +5915,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="8" t="s">
         <v>485</v>
       </c>
       <c r="I62" s="2">
@@ -6112,28 +6000,28 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="7" t="s">
         <v>499</v>
       </c>
       <c r="I65" s="2">
@@ -6264,28 +6152,28 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="7" t="s">
         <v>521</v>
       </c>
       <c r="I70" s="2">
@@ -6298,28 +6186,28 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="7" t="s">
         <v>528</v>
       </c>
       <c r="I71" s="2">
@@ -6363,28 +6251,28 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="7" t="s">
         <v>533</v>
       </c>
       <c r="I73" s="2">
@@ -6425,28 +6313,28 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="7" t="s">
         <v>543</v>
       </c>
       <c r="I75" s="2">
@@ -6459,28 +6347,28 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="7" t="s">
         <v>546</v>
       </c>
       <c r="I76" s="2">
@@ -6493,28 +6381,28 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="7" t="s">
         <v>553</v>
       </c>
       <c r="I77" s="2">
@@ -6723,28 +6611,28 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="7" t="s">
         <v>581</v>
       </c>
       <c r="I85" s="2">
@@ -6788,28 +6676,28 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="7" t="s">
         <v>589</v>
       </c>
       <c r="I87" s="2">
@@ -6822,28 +6710,28 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="7" t="s">
         <v>589</v>
       </c>
       <c r="I88" s="2">
@@ -7005,28 +6893,28 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G94" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="7" t="s">
         <v>577</v>
       </c>
       <c r="I94" s="2">
@@ -7070,28 +6958,28 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G96" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="7" t="s">
         <v>625</v>
       </c>
       <c r="I96" s="2">
@@ -7194,28 +7082,28 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G100" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="7" t="s">
         <v>640</v>
       </c>
       <c r="I100" s="2">
@@ -7228,28 +7116,28 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="7" t="s">
         <v>640</v>
       </c>
       <c r="I101" s="2">
@@ -7262,28 +7150,28 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="7" t="s">
         <v>649</v>
       </c>
       <c r="I102" s="2">
@@ -7296,28 +7184,28 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" s="7" t="s">
         <v>655</v>
       </c>
       <c r="I103" s="2">
@@ -7361,28 +7249,28 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="7" t="s">
         <v>655</v>
       </c>
       <c r="I105" s="2">
@@ -7442,28 +7330,28 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F108" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="G108" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="7" t="s">
         <v>671</v>
       </c>
       <c r="I108" s="2">
@@ -7827,28 +7715,28 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F121" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H121" s="7" t="s">
         <v>721</v>
       </c>
       <c r="I121" s="2">
@@ -8001,28 +7889,28 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" s="7" t="s">
         <v>738</v>
       </c>
       <c r="I127" s="2">
@@ -8321,28 +8209,28 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="H138" s="7" t="s">
         <v>782</v>
       </c>
       <c r="I138" s="2">
@@ -8380,28 +8268,28 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="G140" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="H140" s="7" t="s">
         <v>789</v>
       </c>
       <c r="I140" s="2">
@@ -8414,28 +8302,28 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="H141" s="7" t="s">
         <v>794</v>
       </c>
       <c r="I141" s="2">
@@ -8507,28 +8395,28 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F144" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="G144" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="H144" s="7" t="s">
         <v>803</v>
       </c>
       <c r="I144" s="2">
@@ -8603,28 +8491,28 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H147" s="7" t="s">
         <v>811</v>
       </c>
       <c r="I147" s="2">
@@ -8871,28 +8759,28 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="7">
         <v>1</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G157" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="H157" s="7" t="s">
         <v>840</v>
       </c>
       <c r="I157" s="2">
@@ -8933,28 +8821,28 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F159" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="H159" s="2" t="s">
+      <c r="H159" s="7" t="s">
         <v>848</v>
       </c>
       <c r="I159" s="2">
@@ -8998,28 +8886,28 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="F161" s="2" t="s">
+      <c r="F161" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="H161" s="2" t="s">
+      <c r="H161" s="7" t="s">
         <v>857</v>
       </c>
       <c r="I161" s="2">
@@ -9032,28 +8920,28 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F162" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="H162" s="7" t="s">
         <v>863</v>
       </c>
       <c r="I162" s="2">
@@ -9066,28 +8954,28 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="F163" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="H163" s="2" t="s">
+      <c r="H163" s="7" t="s">
         <v>867</v>
       </c>
       <c r="I163" s="2">
@@ -9100,28 +8988,28 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F164" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="G164" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="H164" s="2" t="s">
+      <c r="H164" s="7" t="s">
         <v>872</v>
       </c>
       <c r="I164" s="2">
@@ -9134,28 +9022,28 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="F165" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G165" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="H165" s="2" t="s">
+      <c r="H165" s="7" t="s">
         <v>876</v>
       </c>
       <c r="I165" s="2">
@@ -9168,28 +9056,28 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F166" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="G166" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="H166" s="2" t="s">
+      <c r="H166" s="7" t="s">
         <v>880</v>
       </c>
       <c r="I166" s="2">
@@ -9233,28 +9121,28 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F168" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G168" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="H168" s="2" t="s">
+      <c r="H168" s="7" t="s">
         <v>886</v>
       </c>
       <c r="I168" s="2">
@@ -9267,28 +9155,28 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="F169" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G169" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="H169" s="2" t="s">
+      <c r="H169" s="7" t="s">
         <v>892</v>
       </c>
       <c r="I169" s="2">
@@ -9419,28 +9307,28 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F174" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="G174" s="2">
+      <c r="G174" s="7">
         <v>2019.0207</v>
       </c>
-      <c r="H174" s="2" t="s">
+      <c r="H174" s="7" t="s">
         <v>915</v>
       </c>
       <c r="I174" s="2">
@@ -9546,28 +9434,28 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F178" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G178" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="H178" s="2" t="s">
+      <c r="H178" s="7" t="s">
         <v>929</v>
       </c>
       <c r="I178" s="2">
@@ -9633,28 +9521,28 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F181" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G181" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H181" s="2" t="s">
+      <c r="H181" s="7" t="s">
         <v>940</v>
       </c>
       <c r="I181" s="2">
@@ -9807,28 +9695,28 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F187" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="G187" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H187" s="2" t="s">
+      <c r="H187" s="7" t="s">
         <v>964</v>
       </c>
       <c r="I187" s="2">
@@ -9841,28 +9729,28 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="F188" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="G188" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H188" s="2" t="s">
+      <c r="H188" s="7" t="s">
         <v>348</v>
       </c>
       <c r="I188" s="2">
@@ -9875,28 +9763,28 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="F189" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G189" s="2" t="s">
+      <c r="G189" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H189" s="2" t="s">
+      <c r="H189" s="7" t="s">
         <v>964</v>
       </c>
       <c r="I189" s="2">
@@ -9909,28 +9797,28 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="F190" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="G190" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H190" s="2" t="s">
+      <c r="H190" s="7" t="s">
         <v>348</v>
       </c>
       <c r="I190" s="2">
@@ -9943,28 +9831,28 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="F191" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="G191" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="H191" s="2" t="s">
+      <c r="H191" s="7" t="s">
         <v>971</v>
       </c>
       <c r="I191" s="2">
@@ -9996,28 +9884,28 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="F193" s="2" t="s">
+      <c r="F193" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="G193" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="H193" s="2" t="s">
+      <c r="H193" s="7" t="s">
         <v>978</v>
       </c>
       <c r="I193" s="2">
@@ -10186,28 +10074,28 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="F200" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G200" s="2" t="s">
+      <c r="G200" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="H200" s="2" t="s">
+      <c r="H200" s="7" t="s">
         <v>1001</v>
       </c>
       <c r="I200" s="2">
@@ -10431,28 +10319,28 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="F208" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G208" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="H208" s="2" t="s">
+      <c r="H208" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="I208" s="2">
@@ -10484,28 +10372,28 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="F210" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G210" s="2" t="s">
+      <c r="G210" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="H210" s="2" t="s">
+      <c r="H210" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="I210" s="2">
@@ -10842,28 +10730,28 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="F223" s="2" t="s">
+      <c r="F223" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G223" s="2" t="s">
+      <c r="G223" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="H223" s="2" t="s">
+      <c r="H223" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="I223" s="2">
@@ -10876,28 +10764,28 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="F224" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G224" s="2" t="s">
+      <c r="G224" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="H224" s="2" t="s">
+      <c r="H224" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="I224" s="2">
@@ -10938,28 +10826,28 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="F226" s="2" t="s">
+      <c r="F226" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="G226" s="2" t="s">
+      <c r="G226" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="H226" s="2" t="s">
+      <c r="H226" s="7" t="s">
         <v>1087</v>
       </c>
       <c r="I226" s="2">
@@ -10972,28 +10860,28 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="F227" s="2" t="s">
+      <c r="F227" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="G227" s="2" t="s">
+      <c r="G227" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="H227" s="2" t="s">
+      <c r="H227" s="7" t="s">
         <v>1087</v>
       </c>
       <c r="I227" s="2">
@@ -11091,28 +10979,28 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="F232" s="2" t="s">
+      <c r="F232" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G232" s="2" t="s">
+      <c r="G232" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H232" s="2" t="s">
+      <c r="H232" s="7" t="s">
         <v>1098</v>
       </c>
       <c r="I232" s="2">
@@ -11229,28 +11117,28 @@
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="F238" s="2" t="s">
+      <c r="F238" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="G238" s="2" t="s">
+      <c r="G238" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="H238" s="2" t="s">
+      <c r="H238" s="7" t="s">
         <v>1111</v>
       </c>
       <c r="I238" s="2">
@@ -11322,28 +11210,28 @@
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="F241" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="G241" s="2" t="s">
+      <c r="G241" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H241" s="2" t="s">
+      <c r="H241" s="7" t="s">
         <v>1124</v>
       </c>
       <c r="I241" s="2">
@@ -11356,28 +11244,28 @@
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E242" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="F242" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="G242" s="2" t="s">
+      <c r="G242" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="H242" s="2" t="s">
+      <c r="H242" s="7" t="s">
         <v>1129</v>
       </c>
       <c r="I242" s="2">
@@ -11511,31 +11399,25 @@
       <c r="A247" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="E247" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="F247" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="H247" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>1147</v>
       </c>
       <c r="I247" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J247" s="3">
         <f t="shared" si="7"/>
-        <v>85.714285714285722</v>
+        <v>57.142857142857146</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
@@ -11543,30 +11425,28 @@
         <v>254</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D248" s="2" t="s">
+      <c r="F248" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H248" s="6" t="s">
-        <v>1152</v>
-      </c>
+      <c r="H248" s="6"/>
       <c r="I248" s="2">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J248" s="3">
         <f t="shared" si="7"/>
-        <v>85.714285714285722</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
@@ -11574,10 +11454,10 @@
         <v>255</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="I249" s="2">
         <f t="shared" si="6"/>
@@ -11589,29 +11469,29 @@
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C250" s="2" t="s">
+      <c r="B250" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G250" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H250" s="2" t="s">
-        <v>1157</v>
+      <c r="H250" s="7" t="s">
+        <v>1154</v>
       </c>
       <c r="I250" s="2">
         <f t="shared" si="6"/>
@@ -11623,29 +11503,29 @@
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D251" s="2" t="s">
+      <c r="B251" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D251" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E251" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F251" s="2" t="s">
+      <c r="F251" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G251" s="2" t="s">
+      <c r="G251" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H251" s="2" t="s">
-        <v>1159</v>
+      <c r="H251" s="7" t="s">
+        <v>1156</v>
       </c>
       <c r="I251" s="2">
         <f t="shared" si="6"/>
@@ -11657,29 +11537,29 @@
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D252" s="2" t="s">
+      <c r="B252" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D252" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="E252" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F252" s="2" t="s">
+      <c r="F252" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G252" s="2" t="s">
+      <c r="G252" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="H252" s="2" t="s">
-        <v>1161</v>
+      <c r="H252" s="7" t="s">
+        <v>1158</v>
       </c>
       <c r="I252" s="2">
         <f t="shared" si="6"/>
@@ -11691,29 +11571,29 @@
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
+      <c r="A253" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D253" s="2" t="s">
+      <c r="B253" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D253" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E253" s="2" t="s">
+      <c r="E253" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F253" s="2" t="s">
+      <c r="F253" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G253" s="2" t="s">
+      <c r="G253" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="H253" s="2" t="s">
-        <v>1163</v>
+      <c r="H253" s="7" t="s">
+        <v>1160</v>
       </c>
       <c r="I253" s="2">
         <f t="shared" si="6"/>
@@ -11725,29 +11605,29 @@
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
+      <c r="A254" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E254" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="F254" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G254" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="H254" s="7" t="s">
         <v>1166</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H254" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="I254" s="2">
         <f t="shared" si="6"/>
@@ -11759,29 +11639,29 @@
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H255" s="7" t="s">
         <v>1170</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H255" s="2" t="s">
-        <v>1173</v>
       </c>
       <c r="I255" s="2">
         <f t="shared" si="6"/>
@@ -11797,16 +11677,16 @@
         <v>262</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H256" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H256" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="I256" s="2">
         <f t="shared" si="6"/>
@@ -11822,19 +11702,19 @@
         <v>263</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D257" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>1179</v>
       </c>
       <c r="G257" s="4">
         <v>43511</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="I257" s="2">
         <f t="shared" si="6"/>
@@ -11850,22 +11730,22 @@
         <v>264</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F258" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>1184</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>319</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="I258" s="2">
         <f t="shared" si="6"/>
@@ -11881,13 +11761,13 @@
         <v>265</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>306</v>
@@ -11896,7 +11776,7 @@
         <v>319</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I259" s="2">
         <f t="shared" ref="I259:I261" si="8">COUNTBLANK(B259:H259)</f>
@@ -11912,10 +11792,10 @@
         <v>266</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="I260" s="2">
         <f t="shared" si="8"/>
@@ -11931,22 +11811,22 @@
         <v>267</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D261" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H261" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H261" s="2" t="s">
-        <v>1194</v>
       </c>
       <c r="I261" s="2">
         <f t="shared" si="8"/>
@@ -11960,43 +11840,44 @@
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J262" s="3">
         <f>AVERAGE(J2:J261)</f>
-        <v>79.780219780219824</v>
+        <v>79.61538461538467</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I261">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>